--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_39.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_30_39.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>35267.35010157472</v>
+        <v>7014905.453536863</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>35267.35010157472</v>
+        <v>7014905.453536863</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>21658.12687917587</v>
+        <v>1305693.220532536</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>21658.12687917587</v>
+        <v>1305693.220532536</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1190847455.957966</v>
+        <v>49389129.79119857</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11883.67309079356</v>
+        <v>1320273.517109746</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21525.31914540764</v>
+        <v>2270811.553545771</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31166.96520002169</v>
+        <v>3221349.589981798</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41221.19708029489</v>
+        <v>4169774.547249594</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>51276.06214640937</v>
+        <v>5118623.925980266</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>61332.42679785281</v>
+        <v>6067473.304710937</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>71388.79144929623</v>
+        <v>7016322.683441606</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>81439.31115338397</v>
+        <v>7965780.284945833</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>91494.01281366627</v>
+        <v>8913913.269990075</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>101550.3373215515</v>
+        <v>9862369.201707311</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>111606.6618294368</v>
+        <v>10810825.13342455</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>121662.5144149021</v>
+        <v>11759281.06514179</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>131719.3108452073</v>
+        <v>12707736.99685904</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>141775.6353530926</v>
+        <v>13656192.92857629</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>151831.9598609779</v>
+        <v>14604648.86029353</v>
       </c>
     </row>
   </sheetData>
@@ -27037,25 +27037,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>288</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>782</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
